--- a/docs/samples/Scouter-sample.xlsx
+++ b/docs/samples/Scouter-sample.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,60 +641,16 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>553</v>
-      </c>
-      <c r="C18" t="str">
-        <f>[1]!RCHGetElementNumber("element",B18)</f>
-        <v>Consensus EPS Trend -- Date -- FQ1</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f>[1]!RCHGetElementNumber(Ticker,B18)</f>
-        <v>Current Qtr. (Jun 2024)</v>
-      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>554</v>
-      </c>
-      <c r="C19" t="str">
-        <f>[1]!RCHGetElementNumber("element",B19)</f>
-        <v>Consensus EPS Trend -- Date -- FQ2</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f>[1]!RCHGetElementNumber(Ticker,B19)</f>
-        <v>Next Qtr. (Sep 2024)</v>
-      </c>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>555</v>
-      </c>
-      <c r="C20" t="str">
-        <f>[1]!RCHGetElementNumber("element",B20)</f>
-        <v>Consensus EPS Trend -- Date -- FY1</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f>[1]!RCHGetElementNumber(Ticker,B20)</f>
-        <v>Current Year (2024)</v>
-      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>556</v>
-      </c>
-      <c r="C21" t="str">
-        <f>[1]!RCHGetElementNumber("element",B21)</f>
-        <v>Consensus EPS Trend -- Date -- FY2</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f>[1]!RCHGetElementNumber(Ticker,B21)</f>
-        <v>Next Year (2025)</v>
-      </c>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
